--- a/resultado.xlsx
+++ b/resultado.xlsx
@@ -477,8 +477,10 @@
           <t>GASPARELLO\01 - HORTIGRAN - MATRIZ --------------CNPJ - 22.825.574-0001-31</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>22825574000131</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22825574000131</t>
+        </is>
       </c>
       <c r="E2" t="n">
         <v>22825574</v>
@@ -499,8 +501,10 @@
           <t>CARGA PESADA\02- CARGA PESADA FILIAL ----CNPJ - 05.910.245-0002-50</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>5910245000250</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>05910245000250</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -523,8 +527,10 @@
           <t>SOLAR\01 - SOLAR - MATRIZ ---------------CNPJ - 07.242.947-0001-58</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>7242947000158</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>07242947000158</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -547,8 +553,10 @@
           <t>SOLAR\02 - SOLAR - FILIAL -----------------CNPJ - 07.242.947-0002-39</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>7242947000239</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>07242.947000239</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -571,8 +579,10 @@
           <t>FUCK\01 - FUCK PECAS ----CNPJ - 05.780.473-0001-72</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>5780473000172</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>05780473000172</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -595,8 +605,10 @@
           <t>PORTAL FERRAGENS\03 - W.S ------------------------------CNPJ - 21.814.060-0001-18</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>21814060000118</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21814060000118</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -619,8 +631,10 @@
           <t>PORTAL FERRAGENS\02 - DICO ----------------------------CNPJ - 20.782.023-0001-02</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>20782023000102</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20782023000102</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -643,8 +657,10 @@
           <t>PORTAL FERRAGENS\01 - PORTAL FERRAGENS ------------CNPJ - 09.642.884-0001-52</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>9642884000152</v>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>09642884000152</t>
+        </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -667,8 +683,10 @@
           <t>MATRIZ - CNPJ - 26.256.059-0001-39</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>26256059000139</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26256059000139</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -691,8 +709,10 @@
           <t>PORTAL FERRAGENS\05 - PORTAL MAQUINAS - FILIAL---- CNPJ - 26.256.059-0002-10</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>26256059000210</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>26256059000210</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -715,8 +735,10 @@
           <t>GASPARELLO\03 - HORTIGRAN - FILIAL GUAJARA -----CNPJ - 22.825.574-0003-01</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>22825574000301</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22825574000301</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -739,8 +761,10 @@
           <t>POSTO PLANALTO\01 - POSTO PLANALTO - CNPJ - 34.764.472-0001-32</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>34764472000132</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>34764472000132</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -763,8 +787,10 @@
           <t>CULTIVAR\01 - CULTIVAR MATRIZ -----------------------CNPJ - 18.337.224-0001-59</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>18337224000159</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18337224000159</t>
+        </is>
       </c>
       <c r="E14" t="n">
         <v>18337224</v>
